--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-01-05" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2021年01月" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>1. 台湾积分战 activity 179，数使用了国服的数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +38,38 @@
   </si>
   <si>
     <t>国服的功能，海外版本会出现提前部署代码与配置的情况，需要代码兼容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 国服海外分支合并流程错乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把流程定下，对照一步步执行[执行完毕做标注]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx/develop 到 release/weekly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release/weekly 到 xxx/develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx/month 到 xxx/develop  [完毕]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx/weekly 到 xxx/month  [完毕]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外分支比较多，其他因素干扰流程，导致对应当前操作的分支记忆错乱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -431,6 +462,52 @@
       </c>
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -452,18 +529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>1. 台湾积分战 activity 179，数使用了国服的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修复：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 国服海外分支合并流程错乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>先把流程定下，对照一步步执行[执行完毕做标注]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +58,40 @@
   </si>
   <si>
     <t>海外分支比较多，其他因素干扰流程，导致对应当前操作的分支记忆错乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop与weekly存在合并与反合并，commit log 一模一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.是否有插件支持，commit自动追加日志[local branche]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾积分战 activity 179，数使用了国服的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服海外分支合并流程错乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多分支开发，无法追随该commit是在哪一个分支下提交的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【TODO】</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +119,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -426,88 +457,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="107.875" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>6</v>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>10</v>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.是否有插件支持，commit自动追加日志[local branche]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台湾积分战 activity 179，数使用了国服的数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,8 +73,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>协会成员列表包括：其他协会的玩家，会长踢不出去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>多分支开发，无法追随该commit是在哪一个分支下提交的</t>
+      <t>1.数据分开存储，师徒系统只有2人，能使用ValidateId标识同步更新。但是协会成员众多，无法使用ValidateId标识同步更新。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【TODO】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.踢人操作应该锁A会长、A协会，但同时需要把B成员锁住【3个锁】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.协会与个人数据分开存储, 存在数据不一致的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.踢人操作涉及 A会长 B成员 A协会 3个对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.具体操作会锁住B成员、B协会，使用B协会来为主要操作。 很明显B该协会不包括A成员，所以返回结果码失败[A会长一直无法踢出B]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分支开发，无法追随该commit是在哪一个分支下提交的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.是否有插件支持，commit自动追加日志[local branche]</t>
     </r>
     <r>
       <rPr>
@@ -156,12 +198,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="167.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -474,11 +522,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -486,12 +534,16 @@
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+    </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -503,19 +555,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+    </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -523,47 +578,135 @@
       </c>
     </row>
     <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+    </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,17 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活动还没有开启，但是配置提前部署上去，导致初始化了activity 179的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待活动开启再修改正式配置，但是数据不会更新【已经初始化就不出师话】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,6 +130,70 @@
       </rPr>
       <t>【TODO】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会红包单独功能与活动绑定，活动修改时间为新活动，按常理会触发ActivityManager::onDeleteOldData删除玩家旧的红包数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.玩家红包数据是单独存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活动数据也是单独存储的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.触发ActivityManager::onDeleteOldData的时机是：有旧的活动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.活动数据只有写变更才会存储，协会红包单纯绑定活动时间开启限制，玩家永远没有活动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据一致性问题，两个单独的功能数据无法保证数据一致性【BUG是玩家只会触发协会数据存储】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.链接两个独立的功能，需要定义清楚它们之前的主从关系，功能逻辑、数据存储等等。【BUG是两个功能根本没有数据存储主从关系】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.签到功能3天前就部署服务器，但是还没有到活动开启时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到第一天就默认已经签到了3天，第一天就能领取3份奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活动没有开启，红点逻辑调用了接口调用，触发考虑玩家更新今天签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动public接口会被外部调用，即使活动没有开启，需要做好限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.红点的调用链本来就涉及很多功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.读数据接口不应该涉及数据写操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待活动开启再修改正式配置，但是数据不会更新【已经初始化就不初始化】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能假设为旧功能复用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多步骤依赖笔记、非记忆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,18 +258,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,100 +574,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B44"/>
+  <dimension ref="A2:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="167.125" customWidth="1"/>
+    <col min="2" max="2" width="141.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>9</v>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>8</v>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>7</v>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -620,8 +696,8 @@
       <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -631,8 +707,8 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -640,10 +716,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -665,8 +741,8 @@
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -674,22 +750,22 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>19</v>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1"/>
-      <c r="B41" t="s">
-        <v>20</v>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -697,16 +773,117 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1"/>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,232 @@
   </si>
   <si>
     <t>多步骤依赖笔记、非记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>subId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>rankValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">java.lang.String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>extData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">java.nio.ByteBuffer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>formation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// optional</t>
+    </r>
+  </si>
+  <si>
+    <t>使用Thrift协议导出的class，字段是public，APP返回数据直接取formation.array()有误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.formation数据：java.nio.HeapByteBuffer[pos=97 lim=692 cap=6125]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.有效的数据是：limit - position范围内的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认formation 与 getFormation() 返回结果一致。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +461,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +534,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C69"/>
+  <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,6 +1144,78 @@
       <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>5</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,66 @@
   </si>
   <si>
     <t>1.默认formation 与 getFormation() 返回结果一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanPVP排行榜结算, 前10名需要发送奖励，然而受到奖励的10个玩家排名与当前排行榜不一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int areaRankId = DanPVPConstConfig.getAreaRankId();
+int expiredTime = DanPVPConstConfig.getNextExpiredTime(new Date());
+handleManager(0, areaRankId, expiredTime, TopNRankManager::getRankCount);
+APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程启动的时候会初始化数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始设计之前排行榜区分 全服与单服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.排行榜DanPVPRankAppService服务的初衷：全服、单服都使用该实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.DanPVPRankAppService动态维护不同rankId排行榜Map，服务没有避免一个rankId同时存在两实例中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.注重代码复用，在业务上忽略了该服务必须职责唯一.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.逻辑APP实现上没有彻底堵死无效的参数, 信任Server有效性. 忽略了即使Server无误，也会存在其他地方有误.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.不上线的实例起服加载了当时的排行榜数据, 但是排行榜实时更新在新的实例中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.结算时间到后, 旧实例抢先发送奖励邮件【使用了旧排行榜数据】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +545,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCC7832"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -514,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C86"/>
+  <dimension ref="A2:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1216,6 +1286,68 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>6</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="71.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,82 @@
   </si>
   <si>
     <t>5.结算时间到后, 旧实例抢先发送奖励邮件【使用了旧排行榜数据】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动BOSS重复补发伤害奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /**
+  * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用来判</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">缓存是否过期了
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  * @param current
+  * @return
+  */
+ public boolean checkCacheIsExpired(Date current){
+  Date date = DateUtil.addDay(startDate, cacheDurationDays - 1);
+  return current.getTime() &gt;= date.getTime();
+ }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.判断过期时间强耦合配置值，非常容易考虑不周或者计算出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务上尽量避免使用redis缓存长期使用的重要数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.测试环境的服务器 与 redis服务器不在同一个时钟环境，难以测试发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.玩家数据使用redis数据, redis数据会设置过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.所有BOSS的配置缓存时长使用最大配置值【这个值计算错误了, 存了最小配置值】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C100"/>
+  <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,6 +1423,56 @@
     <row r="100" spans="1:2">
       <c r="B100" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>7</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="128.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="2021年01月" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="优化与总结" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,69 @@
   </si>
   <si>
     <t>3.所有BOSS的配置缓存时长使用最大配置值【这个值计算错误了, 存了最小配置值】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 缓存组件优化方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 缓存组件优化方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言：缓存默认实现方式：IO写redis，定时回写db. 
+需求：无差异的存储方式不能满足业务多样性，可灵活切换订制的存储方式。
+场景：为了减少IO，对于非敏感、非重要数据。可以选择内存操作然后定时回写db或者redis、实时IO读写redis等方式。
+现状：项目需要根据场景分别使用不同的缓存组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 缓存组件优化使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言：支持无数据避免缓存穿透
+需求：针对不同数据，定制缓存穿透的条件。
+场景：新版本上新活动，玩家首次登陆的活动数据避免缓存穿透
+现状：使用首次登陆判断。
+思考1：上新活动如何判断玩家首次登陆？
+思考2：服务器首次启动+缓存UserId， 服务器首次启动与上新活动强关联，单服缓存全服UserId的内存消耗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言：数据存储使用多表方式，登录加载数据，IO操作是单表加载数据
+需求：初次初始化多表数据时，使用多表批量代替一表一次。
+场景：玩家登录加载各种数据，IO操作耗时较长。可以通过批量加载数据，减少IO。
+现状：无
+思考1: redis缓存批量加载，考虑玩家数据量比较大的情况，是否有影响？
+思考2: 数据库使用视图、甚至JOIN奇怪手段。性能的问题有待解决。
+思考2：多线程加载堵塞等待，缩短单个玩家的IO时间。同时在线人数比较多的情况，线程频繁切换影响有多大？
+思考3：多线程加载异步返回，同步框架限制，同时需要反馈机制避免缓存服务器压力问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会BOSS APP启动服务器耗时2小时+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final String SELECT_ALL_EXPIRED_TIME = "SELECT DISTINCT expiredTime FROM guild_boss_formation_rank WHERE ZoneId=?";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.业务是N个协会 * M个BOSS=N*M次的全表扫描。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SQL脚本是全表扫描。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.全表扫描的SQL，应该自然而然考虑是否执行次数很少、或者频率很低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.服务器启动耗时，考虑IO操作耗时的情况，测试环境也可以通过查看db、redis日志定位异常的IO。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +746,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C113"/>
+  <dimension ref="A2:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1470,9 +1536,53 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:2">
       <c r="B113" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1484,12 +1594,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="187.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="94.5">
+      <c r="A4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="202.5">
+      <c r="A9" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="148.5">
+      <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +619,10 @@
   </si>
   <si>
     <t>2.服务器启动耗时，考虑IO操作耗时的情况，测试环境也可以通过查看db、redis日志定位异常的IO。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.单个协会排行版数据量不少B, 主要耗时点是数据量大+=N*M次IO来回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C125"/>
+  <dimension ref="A2:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1571,17 +1575,23 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1"/>
+      <c r="B123" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="B125" s="2" t="s">
+    <row r="126" spans="1:2">
+      <c r="B126" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,70 @@
   </si>
   <si>
     <t>3.单个协会排行版数据量不少B, 主要耗时点是数据量大+=N*M次IO来回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis报错导致资源池耗尽, 异常捕捉执行finally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   private &lt;T&gt; T runCommand(Function&lt;ShardedJedis, Jedis&gt; getJedis, RedisCommandExecutor executor) {
+        ShardedJedis shardedJedis = pool.getResource();
+        Jedis jedis = getJedis.apply(shardedJedis); //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报错异常的地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        try {
+            return (T) executor.execute(jedis);
+        } catch (Exception e) {
+            StringBuilder builder = new StringBuilder().append("redis command error. node: ");
+            parseAndAppendAddress(builder, jedis);
+            LOG.error(builder.toString(), e);
+            throw new RuntimeException(e);
+        } finally {
+            shardedJedis.close();
+        }
+    }
+  public static byte[] encode(final String str) {
+    try {
+      if (str == null) {
+        throw new JedisDataException("value sent to redis cannot be null");
+      }
+      return str.getBytes(Protocol.CHARSET);
+    } catch (UnsupportedEncodingException e) {
+      throw new JedisException(e);
+    }
+  }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务代码BUG导致redis的操作KEY值为null触发了异常。【value sent to redis cannot be null】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会BOSS进度排行榜，打开界面卡顿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C126"/>
+  <dimension ref="A2:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1593,6 +1657,74 @@
     <row r="126" spans="1:2">
       <c r="B126" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>8</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="356.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>9</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="8"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,6 +687,102 @@
   </si>
   <si>
     <t>协会BOSS进度排行榜，打开界面卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 获取排行榜没做分批处理(1W排行榜获取都直接IO获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 获取的排行榜for循环内单次IO获取信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.除了DB, redisIO等操作，远程调用server端严格限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.for循环内特别留意是否有IO等耗时的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置reload之后，数据存在的还是旧配置表的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  private void initAllGenMapScheduler(int activityId) {
+        stopAllScheduler();
+        if (!isOnline(null)) {
+            return;
+        }
+        logger.debug("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始初始化活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的地图生成任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>", activityId);
+        for (Act256MapConfig mapConfig : Act256MapConfigs.instance.activityConfigs(activityId)) {
+            genMapFutureMap.put(mapConfig.getId(), ScheduleManagement.instance.register(
+                    new JobContext(() -&gt; generateMap(mapConfig),
+                            ScheduleType.WithFixedDelay, 0, 30, TimeUnit.SECONDS)));
+        }
+    } 
+   DataSheetManager.getInstance().addReloader(T_activity256_map.class, () -&gt; initAllGenMapScheduler(activityId));</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.存在顺序问题，initAllGenMapScheduler先跑Act256MapConfig后构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Act256MapConfig 的构造也是监听addReloader(T_activity256_map.class)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 mapConfig直接存入调度，即使Act256MapConfig重新构造，调度使用的还是旧的Act256MapConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.relaod严格统一在一处，Act256MapConfig构造成功才执行其他依赖的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.lamb表达式等类似的编码方式, 引入的参数是否是不可变变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C148"/>
+  <dimension ref="A2:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1611,7 +1707,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>70</v>
@@ -1661,7 +1757,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>77</v>
@@ -1698,7 +1794,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>81</v>
@@ -1712,19 +1808,77 @@
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="2">
-        <v>1</v>
+      <c r="B146" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1"/>
+      <c r="B147" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>80</v>
+      <c r="B149" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="B150" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="199.5">
+      <c r="A154" s="1"/>
+      <c r="B154" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/code-note/代码注意事项.xlsx
+++ b/code-note/代码注意事项.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>原因：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,30 @@
   </si>
   <si>
     <t>2.lamb表达式等类似的编码方式, 引入的参数是否是不可变变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会成员的协会BOSS排行榜阵容数据为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 排行榜使用协会ID记录数据，玩家最高分与自己加入的协会无关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 玩家直接用上次最高分的情况，不用上阵容。但是与上次同分，不会变更排行版数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 玩家退出协会，加入新协会直接扫荡，就用了上个协会的最高伤害，新协会排行榜没记录，就上榜了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.玩家数据与协会数据一致性问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.在数据存储方便，基准不同会引起不同的结果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C161"/>
+  <dimension ref="A2:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1876,9 +1900,57 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2">
       <c r="B161" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>12</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="B168" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="B172" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
